--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrCoV_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrCoV_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -497,16 +497,16 @@
         <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>254.1841888427734</v>
+        <v>248.3161010742188</v>
       </c>
       <c r="G2" t="n">
-        <v>22.81161308288574</v>
+        <v>18.42847061157227</v>
       </c>
       <c r="H2" t="n">
-        <v>-449.4812927246094</v>
+        <v>-429.2081604003906</v>
       </c>
       <c r="I2" t="n">
-        <v>42.05339813232422</v>
+        <v>31.03676605224609</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>251.4080963134766</v>
+        <v>243.4072723388672</v>
       </c>
       <c r="G3" t="n">
-        <v>23.82689476013184</v>
+        <v>18.95433235168457</v>
       </c>
       <c r="H3" t="n">
-        <v>-442.4836730957031</v>
+        <v>-421.6644287109375</v>
       </c>
       <c r="I3" t="n">
-        <v>43.93302154541016</v>
+        <v>31.77488899230957</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>248.9773101806641</v>
+        <v>238.8184051513672</v>
       </c>
       <c r="G4" t="n">
-        <v>25.19290161132812</v>
+        <v>19.60271453857422</v>
       </c>
       <c r="H4" t="n">
-        <v>-434.9525451660156</v>
+        <v>-413.6799621582031</v>
       </c>
       <c r="I4" t="n">
-        <v>45.83778381347656</v>
+        <v>32.5434455871582</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>246.8974151611328</v>
+        <v>234.55859375</v>
       </c>
       <c r="G5" t="n">
-        <v>26.91554069519043</v>
+        <v>20.38623046875</v>
       </c>
       <c r="H5" t="n">
-        <v>-426.8858337402344</v>
+        <v>-405.2469787597656</v>
       </c>
       <c r="I5" t="n">
-        <v>47.73624801635742</v>
+        <v>33.33848571777344</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>245.1687774658203</v>
+        <v>230.6328277587891</v>
       </c>
       <c r="G6" t="n">
-        <v>28.99023628234863</v>
+        <v>21.31513214111328</v>
       </c>
       <c r="H6" t="n">
-        <v>-418.2809143066406</v>
+        <v>-396.3596496582031</v>
       </c>
       <c r="I6" t="n">
-        <v>49.59303283691406</v>
+        <v>34.15531158447266</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>243.7866668701172</v>
+        <v>227.0422973632812</v>
       </c>
       <c r="G7" t="n">
-        <v>31.40204429626465</v>
+        <v>22.39529800415039</v>
       </c>
       <c r="H7" t="n">
-        <v>-409.1357116699219</v>
+        <v>-387.0146484375</v>
       </c>
       <c r="I7" t="n">
-        <v>51.36905288696289</v>
+        <v>34.98888778686523</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>242.7422637939453</v>
+        <v>223.784912109375</v>
       </c>
       <c r="G8" t="n">
-        <v>34.12753677368164</v>
+        <v>23.62723350524902</v>
       </c>
       <c r="H8" t="n">
-        <v>-399.4493713378906</v>
+        <v>-377.2119140625</v>
       </c>
       <c r="I8" t="n">
-        <v>53.0228271484375</v>
+        <v>35.83422088623047</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>242.0225982666016</v>
+        <v>220.8556518554688</v>
       </c>
       <c r="G9" t="n">
-        <v>37.13685989379883</v>
+        <v>25.00570297241211</v>
       </c>
       <c r="H9" t="n">
-        <v>-389.2232971191406</v>
+        <v>-366.9554748535156</v>
       </c>
       <c r="I9" t="n">
-        <v>54.51174545288086</v>
+        <v>36.68672561645508</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>241.6117401123047</v>
+        <v>218.2470855712891</v>
       </c>
       <c r="G10" t="n">
-        <v>40.39625549316406</v>
+        <v>26.52056694030762</v>
       </c>
       <c r="H10" t="n">
-        <v>-378.461669921875</v>
+        <v>-356.2540588378906</v>
       </c>
       <c r="I10" t="n">
-        <v>55.79389572143555</v>
+        <v>37.54216003417969</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>241.4910430908203</v>
+        <v>215.9498443603516</v>
       </c>
       <c r="G11" t="n">
-        <v>43.87003326416016</v>
+        <v>28.15776824951172</v>
       </c>
       <c r="H11" t="n">
-        <v>-367.1732177734375</v>
+        <v>-345.1209716796875</v>
       </c>
       <c r="I11" t="n">
-        <v>56.83042526245117</v>
+        <v>38.39684677124023</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>241.6402130126953</v>
+        <v>213.9530639648438</v>
       </c>
       <c r="G12" t="n">
-        <v>47.52228927612305</v>
+        <v>29.90052032470703</v>
       </c>
       <c r="H12" t="n">
-        <v>-355.3716125488281</v>
+        <v>-333.574951171875</v>
       </c>
       <c r="I12" t="n">
-        <v>57.58743667602539</v>
+        <v>39.24710083007812</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>242.0375213623047</v>
+        <v>212.24462890625</v>
       </c>
       <c r="G13" t="n">
-        <v>51.31791687011719</v>
+        <v>31.73065185546875</v>
       </c>
       <c r="H13" t="n">
-        <v>-343.0771179199219</v>
+        <v>-321.6396179199219</v>
       </c>
       <c r="I13" t="n">
-        <v>58.03826522827148</v>
+        <v>40.08942794799805</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>242.6604614257812</v>
+        <v>210.8117523193359</v>
       </c>
       <c r="G14" t="n">
-        <v>55.22354888916016</v>
+        <v>33.62954711914062</v>
       </c>
       <c r="H14" t="n">
-        <v>-330.3169860839844</v>
+        <v>-309.343994140625</v>
       </c>
       <c r="I14" t="n">
-        <v>58.16519927978516</v>
+        <v>40.9196891784668</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>243.4864501953125</v>
+        <v>209.6410522460938</v>
       </c>
       <c r="G15" t="n">
-        <v>59.20807647705078</v>
+        <v>35.57894897460938</v>
       </c>
       <c r="H15" t="n">
-        <v>-317.1269226074219</v>
+        <v>-296.7217407226562</v>
       </c>
       <c r="I15" t="n">
-        <v>57.9608154296875</v>
+        <v>41.73307037353516</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>244.4928436279297</v>
+        <v>208.7189178466797</v>
       </c>
       <c r="G16" t="n">
-        <v>63.24289703369141</v>
+        <v>37.56164932250977</v>
       </c>
       <c r="H16" t="n">
-        <v>-303.5514221191406</v>
+        <v>-283.810791015625</v>
       </c>
       <c r="I16" t="n">
-        <v>57.42852020263672</v>
+        <v>42.52374267578125</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>245.6574859619141</v>
+        <v>208.03173828125</v>
       </c>
       <c r="G17" t="n">
-        <v>67.30199432373047</v>
+        <v>39.56168746948242</v>
       </c>
       <c r="H17" t="n">
-        <v>-289.6439819335938</v>
+        <v>-270.6531677246094</v>
       </c>
       <c r="I17" t="n">
-        <v>56.58222961425781</v>
+        <v>43.28478240966797</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>246.958740234375</v>
+        <v>207.5659637451172</v>
       </c>
       <c r="G18" t="n">
-        <v>71.36214447021484</v>
+        <v>41.56465911865234</v>
       </c>
       <c r="H18" t="n">
-        <v>-275.467041015625</v>
+        <v>-257.2940368652344</v>
       </c>
       <c r="I18" t="n">
-        <v>55.44521713256836</v>
+        <v>44.00844573974609</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>248.3759765625</v>
+        <v>207.3083038330078</v>
       </c>
       <c r="G19" t="n">
-        <v>75.40266418457031</v>
+        <v>43.55786514282227</v>
       </c>
       <c r="H19" t="n">
-        <v>-261.0912170410156</v>
+        <v>-243.78076171875</v>
       </c>
       <c r="I19" t="n">
-        <v>54.04858016967773</v>
+        <v>44.68610000610352</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>249.889404296875</v>
+        <v>207.2458038330078</v>
       </c>
       <c r="G20" t="n">
-        <v>79.40543365478516</v>
+        <v>45.53024291992188</v>
       </c>
       <c r="H20" t="n">
-        <v>-246.5939788818359</v>
+        <v>-230.1627655029297</v>
       </c>
       <c r="I20" t="n">
-        <v>52.42902755737305</v>
+        <v>45.30895614624023</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>251.4803619384766</v>
+        <v>207.3658447265625</v>
       </c>
       <c r="G21" t="n">
-        <v>83.35469818115234</v>
+        <v>47.47240447998047</v>
       </c>
       <c r="H21" t="n">
-        <v>-232.0581512451172</v>
+        <v>-216.4901580810547</v>
       </c>
       <c r="I21" t="n">
-        <v>50.62702941894531</v>
+        <v>45.86837768554688</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>253.1312408447266</v>
+        <v>207.6563873291016</v>
       </c>
       <c r="G22" t="n">
-        <v>87.23699188232422</v>
+        <v>49.37644958496094</v>
       </c>
       <c r="H22" t="n">
-        <v>-217.5696258544922</v>
+        <v>-202.8130645751953</v>
       </c>
       <c r="I22" t="n">
-        <v>48.68568801879883</v>
+        <v>46.35678482055664</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>254.8256988525391</v>
+        <v>208.1056976318359</v>
       </c>
       <c r="G23" t="n">
-        <v>91.04096984863281</v>
+        <v>51.23595428466797</v>
       </c>
       <c r="H23" t="n">
-        <v>-203.2152557373047</v>
+        <v>-189.18115234375</v>
       </c>
       <c r="I23" t="n">
-        <v>46.65041351318359</v>
+        <v>46.76789474487305</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>256.548583984375</v>
+        <v>208.7025604248047</v>
       </c>
       <c r="G24" t="n">
-        <v>94.75728607177734</v>
+        <v>53.04579162597656</v>
       </c>
       <c r="H24" t="n">
-        <v>-189.0803070068359</v>
+        <v>-175.642578125</v>
       </c>
       <c r="I24" t="n">
-        <v>44.56965637207031</v>
+        <v>47.09736633300781</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>258.2858581542969</v>
+        <v>209.4362945556641</v>
       </c>
       <c r="G25" t="n">
-        <v>98.37844085693359</v>
+        <v>54.80208206176758</v>
       </c>
       <c r="H25" t="n">
-        <v>-175.2463226318359</v>
+        <v>-162.2435455322266</v>
       </c>
       <c r="I25" t="n">
-        <v>42.49626922607422</v>
+        <v>47.34352111816406</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>260.0248107910156</v>
+        <v>210.2966766357422</v>
       </c>
       <c r="G26" t="n">
-        <v>101.8986053466797</v>
+        <v>56.50185012817383</v>
       </c>
       <c r="H26" t="n">
-        <v>-161.7889251708984</v>
+        <v>-149.0277862548828</v>
       </c>
       <c r="I26" t="n">
-        <v>40.48942184448242</v>
+        <v>47.50725936889648</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>261.7537841796875</v>
+        <v>211.2739410400391</v>
       </c>
       <c r="G27" t="n">
-        <v>105.3135528564453</v>
+        <v>58.14320373535156</v>
       </c>
       <c r="H27" t="n">
-        <v>-148.7762298583984</v>
+        <v>-136.0359039306641</v>
       </c>
       <c r="I27" t="n">
-        <v>38.61581420898438</v>
+        <v>47.59280776977539</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>263.4624328613281</v>
+        <v>212.3588409423828</v>
       </c>
       <c r="G28" t="n">
-        <v>108.6205749511719</v>
+        <v>59.72495651245117</v>
       </c>
       <c r="H28" t="n">
-        <v>-136.2675323486328</v>
+        <v>-123.3054580688477</v>
       </c>
       <c r="I28" t="n">
-        <v>36.94924163818359</v>
+        <v>47.60726547241211</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>265.1414489746094</v>
+        <v>213.5424957275391</v>
       </c>
       <c r="G29" t="n">
-        <v>111.8181381225586</v>
+        <v>61.24660110473633</v>
       </c>
       <c r="H29" t="n">
-        <v>-124.3123474121094</v>
+        <v>-110.8703079223633</v>
       </c>
       <c r="I29" t="n">
-        <v>35.56758117675781</v>
+        <v>47.56098937988281</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>266.7825622558594</v>
+        <v>214.8165740966797</v>
       </c>
       <c r="G30" t="n">
-        <v>114.9059066772461</v>
+        <v>62.70837020874023</v>
       </c>
       <c r="H30" t="n">
-        <v>-112.9500503540039</v>
+        <v>-98.7606201171875</v>
       </c>
       <c r="I30" t="n">
-        <v>34.54635238647461</v>
+        <v>47.46707916259766</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrCoV_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrCoV_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -497,16 +497,16 @@
         <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>248.3161010742188</v>
+        <v>376.570556640625</v>
       </c>
       <c r="G2" t="n">
-        <v>18.42847061157227</v>
+        <v>116.0909042358398</v>
       </c>
       <c r="H2" t="n">
-        <v>-429.2081604003906</v>
+        <v>-306.9236145019531</v>
       </c>
       <c r="I2" t="n">
-        <v>31.03676605224609</v>
+        <v>80.60630035400391</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>243.4072723388672</v>
+        <v>377.8965759277344</v>
       </c>
       <c r="G3" t="n">
-        <v>18.95433235168457</v>
+        <v>114.8945846557617</v>
       </c>
       <c r="H3" t="n">
-        <v>-421.6644287109375</v>
+        <v>-286.1405334472656</v>
       </c>
       <c r="I3" t="n">
-        <v>31.77488899230957</v>
+        <v>83.64480590820312</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>238.8184051513672</v>
+        <v>378.751953125</v>
       </c>
       <c r="G4" t="n">
-        <v>19.60271453857422</v>
+        <v>113.1833953857422</v>
       </c>
       <c r="H4" t="n">
-        <v>-413.6799621582031</v>
+        <v>-264.2979736328125</v>
       </c>
       <c r="I4" t="n">
-        <v>32.5434455871582</v>
+        <v>86.60104370117188</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>234.55859375</v>
+        <v>378.7383117675781</v>
       </c>
       <c r="G5" t="n">
-        <v>20.38623046875</v>
+        <v>110.9576187133789</v>
       </c>
       <c r="H5" t="n">
-        <v>-405.2469787597656</v>
+        <v>-241.8375091552734</v>
       </c>
       <c r="I5" t="n">
-        <v>33.33848571777344</v>
+        <v>89.70652008056641</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>230.6328277587891</v>
+        <v>377.6027526855469</v>
       </c>
       <c r="G6" t="n">
-        <v>21.31513214111328</v>
+        <v>108.0590438842773</v>
       </c>
       <c r="H6" t="n">
-        <v>-396.3596496582031</v>
+        <v>-219.3906860351562</v>
       </c>
       <c r="I6" t="n">
-        <v>34.15531158447266</v>
+        <v>93.06877136230469</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>227.0422973632812</v>
+        <v>375.2123718261719</v>
       </c>
       <c r="G7" t="n">
-        <v>22.39529800415039</v>
+        <v>104.4285125732422</v>
       </c>
       <c r="H7" t="n">
-        <v>-387.0146484375</v>
+        <v>-197.7179412841797</v>
       </c>
       <c r="I7" t="n">
-        <v>34.98888778686523</v>
+        <v>96.3187255859375</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>223.784912109375</v>
+        <v>371.6254577636719</v>
       </c>
       <c r="G8" t="n">
-        <v>23.62723350524902</v>
+        <v>100.3486785888672</v>
       </c>
       <c r="H8" t="n">
-        <v>-377.2119140625</v>
+        <v>-177.5198516845703</v>
       </c>
       <c r="I8" t="n">
-        <v>35.83422088623047</v>
+        <v>98.66035461425781</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>220.8556518554688</v>
+        <v>367.1621398925781</v>
       </c>
       <c r="G9" t="n">
-        <v>25.00570297241211</v>
+        <v>96.44670104980469</v>
       </c>
       <c r="H9" t="n">
-        <v>-366.9554748535156</v>
+        <v>-159.2564392089844</v>
       </c>
       <c r="I9" t="n">
-        <v>36.68672561645508</v>
+        <v>99.37419891357422</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>218.2470855712891</v>
+        <v>362.2970275878906</v>
       </c>
       <c r="G10" t="n">
-        <v>26.52056694030762</v>
+        <v>93.27693939208984</v>
       </c>
       <c r="H10" t="n">
-        <v>-356.2540588378906</v>
+        <v>-143.0746002197266</v>
       </c>
       <c r="I10" t="n">
-        <v>37.54216003417969</v>
+        <v>98.27463531494141</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>215.9498443603516</v>
+        <v>357.4263610839844</v>
       </c>
       <c r="G11" t="n">
-        <v>28.15776824951172</v>
+        <v>90.95474243164062</v>
       </c>
       <c r="H11" t="n">
-        <v>-345.1209716796875</v>
+        <v>-128.8736267089844</v>
       </c>
       <c r="I11" t="n">
-        <v>38.39684677124023</v>
+        <v>95.73056030273438</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>213.9530639648438</v>
+        <v>352.748291015625</v>
       </c>
       <c r="G12" t="n">
-        <v>29.90052032470703</v>
+        <v>89.27056121826172</v>
       </c>
       <c r="H12" t="n">
-        <v>-333.574951171875</v>
+        <v>-116.460075378418</v>
       </c>
       <c r="I12" t="n">
-        <v>39.24710083007812</v>
+        <v>92.32014465332031</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>212.24462890625</v>
+        <v>348.2975158691406</v>
       </c>
       <c r="G13" t="n">
-        <v>31.73065185546875</v>
+        <v>87.97276306152344</v>
       </c>
       <c r="H13" t="n">
-        <v>-321.6396179199219</v>
+        <v>-105.6632080078125</v>
       </c>
       <c r="I13" t="n">
-        <v>40.08942794799805</v>
+        <v>88.50959014892578</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>210.8117523193359</v>
+        <v>344.0260009765625</v>
       </c>
       <c r="G14" t="n">
-        <v>33.62954711914062</v>
+        <v>86.86290740966797</v>
       </c>
       <c r="H14" t="n">
-        <v>-309.343994140625</v>
+        <v>-96.35707855224609</v>
       </c>
       <c r="I14" t="n">
-        <v>40.9196891784668</v>
+        <v>84.55937194824219</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>209.6410522460938</v>
+        <v>339.8705139160156</v>
       </c>
       <c r="G15" t="n">
-        <v>35.57894897460938</v>
+        <v>85.71991729736328</v>
       </c>
       <c r="H15" t="n">
-        <v>-296.7217407226562</v>
+        <v>-88.43408966064453</v>
       </c>
       <c r="I15" t="n">
-        <v>41.73307037353516</v>
+        <v>80.58322906494141</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7189178466797</v>
+        <v>335.7763366699219</v>
       </c>
       <c r="G16" t="n">
-        <v>37.56164932250977</v>
+        <v>84.23654937744141</v>
       </c>
       <c r="H16" t="n">
-        <v>-283.810791015625</v>
+        <v>-81.78008270263672</v>
       </c>
       <c r="I16" t="n">
-        <v>42.52374267578125</v>
+        <v>76.63764953613281</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>208.03173828125</v>
+        <v>331.6708984375</v>
       </c>
       <c r="G17" t="n">
-        <v>39.56168746948242</v>
+        <v>82.08816528320312</v>
       </c>
       <c r="H17" t="n">
-        <v>-270.6531677246094</v>
+        <v>-76.26853179931641</v>
       </c>
       <c r="I17" t="n">
-        <v>43.28478240966797</v>
+        <v>72.77602386474609</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>207.5659637451172</v>
+        <v>327.4344787597656</v>
       </c>
       <c r="G18" t="n">
-        <v>41.56465911865234</v>
+        <v>79.06685638427734</v>
       </c>
       <c r="H18" t="n">
-        <v>-257.2940368652344</v>
+        <v>-71.76837921142578</v>
       </c>
       <c r="I18" t="n">
-        <v>44.00844573974609</v>
+        <v>69.05757904052734</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>207.3083038330078</v>
+        <v>322.9178161621094</v>
       </c>
       <c r="G19" t="n">
-        <v>43.55786514282227</v>
+        <v>75.1309814453125</v>
       </c>
       <c r="H19" t="n">
-        <v>-243.78076171875</v>
+        <v>-68.15558624267578</v>
       </c>
       <c r="I19" t="n">
-        <v>44.68610000610352</v>
+        <v>65.53473663330078</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>207.2458038330078</v>
+        <v>317.9968566894531</v>
       </c>
       <c r="G20" t="n">
-        <v>45.53024291992188</v>
+        <v>70.34900665283203</v>
       </c>
       <c r="H20" t="n">
-        <v>-230.1627655029297</v>
+        <v>-65.32106018066406</v>
       </c>
       <c r="I20" t="n">
-        <v>45.30895614624023</v>
+        <v>62.24137115478516</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>207.3658447265625</v>
+        <v>312.6161804199219</v>
       </c>
       <c r="G21" t="n">
-        <v>47.47240447998047</v>
+        <v>64.8433837890625</v>
       </c>
       <c r="H21" t="n">
-        <v>-216.4901580810547</v>
+        <v>-63.17353820800781</v>
       </c>
       <c r="I21" t="n">
-        <v>45.86837768554688</v>
+        <v>59.19083023071289</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>207.6563873291016</v>
+        <v>306.8018493652344</v>
       </c>
       <c r="G22" t="n">
-        <v>49.37644958496094</v>
+        <v>58.8121452331543</v>
       </c>
       <c r="H22" t="n">
-        <v>-202.8130645751953</v>
+        <v>-61.6397590637207</v>
       </c>
       <c r="I22" t="n">
-        <v>46.35678482055664</v>
+        <v>56.38140869140625</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>208.1056976318359</v>
+        <v>300.6557006835938</v>
       </c>
       <c r="G23" t="n">
-        <v>51.23595428466797</v>
+        <v>52.60783004760742</v>
       </c>
       <c r="H23" t="n">
-        <v>-189.18115234375</v>
+        <v>-60.66154479980469</v>
       </c>
       <c r="I23" t="n">
-        <v>46.76789474487305</v>
+        <v>53.8049430847168</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>208.7025604248047</v>
+        <v>294.3338317871094</v>
       </c>
       <c r="G24" t="n">
-        <v>53.04579162597656</v>
+        <v>46.78486251831055</v>
       </c>
       <c r="H24" t="n">
-        <v>-175.642578125</v>
+        <v>-60.19157409667969</v>
       </c>
       <c r="I24" t="n">
-        <v>47.09736633300781</v>
+        <v>51.45359039306641</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>209.4362945556641</v>
+        <v>288.0045166015625</v>
       </c>
       <c r="G25" t="n">
-        <v>54.80208206176758</v>
+        <v>42.0222282409668</v>
       </c>
       <c r="H25" t="n">
-        <v>-162.2435455322266</v>
+        <v>-60.18829345703125</v>
       </c>
       <c r="I25" t="n">
-        <v>47.34352111816406</v>
+        <v>49.32417678833008</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>210.2966766357422</v>
+        <v>281.8053894042969</v>
       </c>
       <c r="G26" t="n">
-        <v>56.50185012817383</v>
+        <v>38.92123794555664</v>
       </c>
       <c r="H26" t="n">
-        <v>-149.0277862548828</v>
+        <v>-60.61187362670898</v>
       </c>
       <c r="I26" t="n">
-        <v>47.50725936889648</v>
+        <v>47.41937637329102</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>211.2739410400391</v>
+        <v>275.8330078125</v>
       </c>
       <c r="G27" t="n">
-        <v>58.14320373535156</v>
+        <v>37.75922775268555</v>
       </c>
       <c r="H27" t="n">
-        <v>-136.0359039306641</v>
+        <v>-61.42118453979492</v>
       </c>
       <c r="I27" t="n">
-        <v>47.59280776977539</v>
+        <v>45.74694061279297</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>212.3588409423828</v>
+        <v>270.1591491699219</v>
       </c>
       <c r="G28" t="n">
-        <v>59.72495651245117</v>
+        <v>38.3275032043457</v>
       </c>
       <c r="H28" t="n">
-        <v>-123.3054580688477</v>
+        <v>-62.57275772094727</v>
       </c>
       <c r="I28" t="n">
-        <v>47.60726547241211</v>
+        <v>44.31733703613281</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>213.5424957275391</v>
+        <v>264.8411865234375</v>
       </c>
       <c r="G29" t="n">
-        <v>61.24660110473633</v>
+        <v>40.01776123046875</v>
       </c>
       <c r="H29" t="n">
-        <v>-110.8703079223633</v>
+        <v>-64.02065277099609</v>
       </c>
       <c r="I29" t="n">
-        <v>47.56098937988281</v>
+        <v>43.14144134521484</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>214.8165740966797</v>
+        <v>259.9095764160156</v>
       </c>
       <c r="G30" t="n">
-        <v>62.70837020874023</v>
+        <v>42.12736129760742</v>
       </c>
       <c r="H30" t="n">
-        <v>-98.7606201171875</v>
+        <v>-65.71726226806641</v>
       </c>
       <c r="I30" t="n">
-        <v>47.46707916259766</v>
+        <v>42.22785186767578</v>
       </c>
     </row>
   </sheetData>
